--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\elec\EIaE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D6BC23-45F9-4364-9735-5A4BBBEBD160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2B5744-246C-4687-B102-2A7FA8D8C036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11320" yWindow="720" windowWidth="13920" windowHeight="12600" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -918,8 +918,10 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="8" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="18">
     <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2901,187 +2903,187 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="70.1796875" customWidth="1"/>
+    <col min="2" max="2" width="70.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>2018</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <v>2021</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B17" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>2.931E-7</v>
       </c>
@@ -3089,7 +3091,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>0.91400000000000003</v>
       </c>
@@ -3097,7 +3099,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="9"/>
     </row>
   </sheetData>
@@ -3121,12 +3123,12 @@
       <selection activeCell="U24" sqref="U24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.26953125" customWidth="1"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>162</v>
       </c>
@@ -3224,7 +3226,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:34" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>163</v>
       </c>
@@ -3337,16 +3339,16 @@
   </sheetPr>
   <dimension ref="A1:AI2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="26.26953125" customWidth="1"/>
+    <col min="1" max="2" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>164</v>
       </c>
@@ -3447,7 +3449,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:35" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>165</v>
       </c>
@@ -3564,37 +3566,37 @@
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="8.81640625" style="12"/>
+    <col min="1" max="16384" width="8.85546875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>40</v>
       </c>
@@ -3737,7 +3739,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>87</v>
       </c>
@@ -3880,7 +3882,7 @@
         <v>446919.3</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>88</v>
       </c>
@@ -4023,7 +4025,7 @@
         <v>101046.6</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>89</v>
       </c>
@@ -4166,7 +4168,7 @@
         <v>10740.73</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>90</v>
       </c>
@@ -4309,7 +4311,7 @@
         <v>8789.2900000000009</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>91</v>
       </c>
@@ -4452,7 +4454,7 @@
         <v>82795.95</v>
       </c>
     </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>92</v>
       </c>
@@ -4595,7 +4597,7 @@
         <v>1488.32</v>
       </c>
     </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>93</v>
       </c>
@@ -4738,7 +4740,7 @@
         <v>149884.5</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>94</v>
       </c>
@@ -4881,12 +4883,12 @@
         <v>2524.77</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>40</v>
       </c>
@@ -5029,7 +5031,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>87</v>
       </c>
@@ -5172,7 +5174,7 @@
         <v>49322.18</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>88</v>
       </c>
@@ -5315,7 +5317,7 @@
         <v>278.58</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>89</v>
       </c>
@@ -5458,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>90</v>
       </c>
@@ -5601,7 +5603,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>91</v>
       </c>
@@ -5744,7 +5746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>92</v>
       </c>
@@ -5887,7 +5889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>93</v>
       </c>
@@ -6030,7 +6032,7 @@
         <v>39.58</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>94</v>
       </c>
@@ -6173,12 +6175,12 @@
         <v>168.35</v>
       </c>
     </row>
-    <row r="29" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>40</v>
       </c>
@@ -6321,7 +6323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>87</v>
       </c>
@@ -6464,7 +6466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>88</v>
       </c>
@@ -6607,7 +6609,7 @@
         <v>1517.62</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>89</v>
       </c>
@@ -6750,7 +6752,7 @@
         <v>5.85</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>90</v>
       </c>
@@ -6893,7 +6895,7 @@
         <v>1.02</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>91</v>
       </c>
@@ -7036,7 +7038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>92</v>
       </c>
@@ -7179,7 +7181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>93</v>
       </c>
@@ -7322,7 +7324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>94</v>
       </c>
@@ -7465,12 +7467,12 @@
         <v>197.33</v>
       </c>
     </row>
-    <row r="40" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>40</v>
       </c>
@@ -7613,7 +7615,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>87</v>
       </c>
@@ -7756,7 +7758,7 @@
         <v>1331.59</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>88</v>
       </c>
@@ -7899,7 +7901,7 @@
         <v>4219.09</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>89</v>
       </c>
@@ -8042,7 +8044,7 @@
         <v>173.73</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>90</v>
       </c>
@@ -8185,7 +8187,7 @@
         <v>471.1</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>91</v>
       </c>
@@ -8328,7 +8330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>92</v>
       </c>
@@ -8471,7 +8473,7 @@
         <v>646.12</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>93</v>
       </c>
@@ -8614,7 +8616,7 @@
         <v>3292.45</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>94</v>
       </c>
@@ -8757,12 +8759,12 @@
         <v>15.03</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>40</v>
       </c>
@@ -8905,7 +8907,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>87</v>
       </c>
@@ -9048,7 +9050,7 @@
         <v>2997.23</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>88</v>
       </c>
@@ -9191,7 +9193,7 @@
         <v>1766.79</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>89</v>
       </c>
@@ -9334,7 +9336,7 @@
         <v>464.72</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>90</v>
       </c>
@@ -9477,7 +9479,7 @@
         <v>121.75</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>91</v>
       </c>
@@ -9620,7 +9622,7 @@
         <v>5357.56</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>92</v>
       </c>
@@ -9763,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A59" s="12" t="s">
         <v>93</v>
       </c>
@@ -9906,7 +9908,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" s="12" t="s">
         <v>94</v>
       </c>
@@ -10049,12 +10051,12 @@
         <v>232.76</v>
       </c>
     </row>
-    <row r="62" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>40</v>
       </c>
@@ -10197,7 +10199,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>87</v>
       </c>
@@ -10340,7 +10342,7 @@
         <v>212560.8</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>88</v>
       </c>
@@ -10483,7 +10485,7 @@
         <v>22888.45</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>89</v>
       </c>
@@ -10626,7 +10628,7 @@
         <v>1890.7</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>90</v>
       </c>
@@ -10769,7 +10771,7 @@
         <v>203.93</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68" s="12" t="s">
         <v>91</v>
       </c>
@@ -10912,7 +10914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69" s="12" t="s">
         <v>92</v>
       </c>
@@ -11055,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>93</v>
       </c>
@@ -11198,7 +11200,7 @@
         <v>171.24</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>94</v>
       </c>
@@ -11341,12 +11343,12 @@
         <v>475.43</v>
       </c>
     </row>
-    <row r="73" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>40</v>
       </c>
@@ -11489,7 +11491,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>87</v>
       </c>
@@ -11632,7 +11634,7 @@
         <v>39868.39</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>88</v>
       </c>
@@ -11775,7 +11777,7 @@
         <v>20311.11</v>
       </c>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77" s="12" t="s">
         <v>89</v>
       </c>
@@ -11918,7 +11920,7 @@
         <v>739.32</v>
       </c>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78" s="12" t="s">
         <v>90</v>
       </c>
@@ -12061,7 +12063,7 @@
         <v>3882.76</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>91</v>
       </c>
@@ -12204,7 +12206,7 @@
         <v>77438.39</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>92</v>
       </c>
@@ -12347,7 +12349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>93</v>
       </c>
@@ -12490,7 +12492,7 @@
         <v>39529.51</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>94</v>
       </c>
@@ -12633,12 +12635,12 @@
         <v>851.93</v>
       </c>
     </row>
-    <row r="84" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>40</v>
       </c>
@@ -12781,7 +12783,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="86" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A86" s="12" t="s">
         <v>87</v>
       </c>
@@ -12924,7 +12926,7 @@
         <v>43038.95</v>
       </c>
     </row>
-    <row r="87" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A87" s="12" t="s">
         <v>88</v>
       </c>
@@ -13067,7 +13069,7 @@
         <v>2118.34</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>89</v>
       </c>
@@ -13210,7 +13212,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>90</v>
       </c>
@@ -13353,7 +13355,7 @@
         <v>128.77000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>91</v>
       </c>
@@ -13496,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>92</v>
       </c>
@@ -13639,7 +13641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>93</v>
       </c>
@@ -13782,7 +13784,7 @@
         <v>570.97</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>94</v>
       </c>
@@ -13925,12 +13927,12 @@
         <v>39.85</v>
       </c>
     </row>
-    <row r="95" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="96" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A96" s="12" t="s">
         <v>40</v>
       </c>
@@ -14073,7 +14075,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>87</v>
       </c>
@@ -14216,7 +14218,7 @@
         <v>3436.27</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>88</v>
       </c>
@@ -14359,7 +14361,7 @@
         <v>26311.89</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>89</v>
       </c>
@@ -14502,7 +14504,7 @@
         <v>3204.65</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>90</v>
       </c>
@@ -14645,7 +14647,7 @@
         <v>3976.3</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>91</v>
       </c>
@@ -14788,7 +14790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>92</v>
       </c>
@@ -14931,7 +14933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>93</v>
       </c>
@@ -15074,7 +15076,7 @@
         <v>88631.31</v>
       </c>
     </row>
-    <row r="104" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A104" s="12" t="s">
         <v>94</v>
       </c>
@@ -15217,12 +15219,12 @@
         <v>107.28</v>
       </c>
     </row>
-    <row r="106" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="107" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A107" s="12" t="s">
         <v>40</v>
       </c>
@@ -15365,7 +15367,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="108" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A108" s="12" t="s">
         <v>87</v>
       </c>
@@ -15508,7 +15510,7 @@
         <v>89607.83</v>
       </c>
     </row>
-    <row r="109" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A109" s="12" t="s">
         <v>88</v>
       </c>
@@ -15651,7 +15653,7 @@
         <v>5671.54</v>
       </c>
     </row>
-    <row r="110" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A110" s="12" t="s">
         <v>89</v>
       </c>
@@ -15794,7 +15796,7 @@
         <v>4116.4799999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A111" s="12" t="s">
         <v>90</v>
       </c>
@@ -15937,7 +15939,7 @@
         <v>1966.24</v>
       </c>
     </row>
-    <row r="112" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A112" s="12" t="s">
         <v>91</v>
       </c>
@@ -16080,7 +16082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A113" s="12" t="s">
         <v>92</v>
       </c>
@@ -16223,7 +16225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A114" s="12" t="s">
         <v>93</v>
       </c>
@@ -16366,7 +16368,7 @@
         <v>2344.98</v>
       </c>
     </row>
-    <row r="115" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A115" s="12" t="s">
         <v>94</v>
       </c>
@@ -16509,12 +16511,12 @@
         <v>132.47</v>
       </c>
     </row>
-    <row r="117" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="118" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A118" s="12" t="s">
         <v>40</v>
       </c>
@@ -16657,7 +16659,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="119" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A119" s="12" t="s">
         <v>87</v>
       </c>
@@ -16800,7 +16802,7 @@
         <v>3952.09</v>
       </c>
     </row>
-    <row r="120" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A120" s="12" t="s">
         <v>88</v>
       </c>
@@ -16943,7 +16945,7 @@
         <v>15889.54</v>
       </c>
     </row>
-    <row r="121" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A121" s="12" t="s">
         <v>89</v>
       </c>
@@ -17086,7 +17088,7 @@
         <v>86.11</v>
       </c>
     </row>
-    <row r="122" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A122" s="12" t="s">
         <v>90</v>
       </c>
@@ -17229,7 +17231,7 @@
         <v>349.61</v>
       </c>
     </row>
-    <row r="123" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A123" s="12" t="s">
         <v>91</v>
       </c>
@@ -17372,7 +17374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A124" s="12" t="s">
         <v>92</v>
       </c>
@@ -17515,7 +17517,7 @@
         <v>754.98</v>
       </c>
     </row>
-    <row r="125" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A125" s="12" t="s">
         <v>93</v>
       </c>
@@ -17658,7 +17660,7 @@
         <v>13427.4</v>
       </c>
     </row>
-    <row r="126" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A126" s="12" t="s">
         <v>94</v>
       </c>
@@ -17801,12 +17803,12 @@
         <v>8.06</v>
       </c>
     </row>
-    <row r="128" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="129" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A129" s="12" t="s">
         <v>40</v>
       </c>
@@ -17949,7 +17951,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="130" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A130" s="12" t="s">
         <v>87</v>
       </c>
@@ -18092,7 +18094,7 @@
         <v>441.85</v>
       </c>
     </row>
-    <row r="131" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A131" s="12" t="s">
         <v>88</v>
       </c>
@@ -18235,7 +18237,7 @@
         <v>42.19</v>
       </c>
     </row>
-    <row r="132" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A132" s="12" t="s">
         <v>89</v>
       </c>
@@ -18378,7 +18380,7 @@
         <v>13.16</v>
       </c>
     </row>
-    <row r="133" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A133" s="12" t="s">
         <v>90</v>
       </c>
@@ -18521,7 +18523,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="134" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A134" s="12" t="s">
         <v>91</v>
       </c>
@@ -18664,7 +18666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A135" s="12" t="s">
         <v>92</v>
       </c>
@@ -18807,7 +18809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A136" s="12" t="s">
         <v>93</v>
       </c>
@@ -18950,7 +18952,7 @@
         <v>1.83</v>
       </c>
     </row>
-    <row r="137" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A137" s="12" t="s">
         <v>94</v>
       </c>
@@ -19093,12 +19095,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="139" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="140" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A140" s="12" t="s">
         <v>40</v>
       </c>
@@ -19241,7 +19243,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="141" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A141" s="12" t="s">
         <v>87</v>
       </c>
@@ -19384,7 +19386,7 @@
         <v>362.1</v>
       </c>
     </row>
-    <row r="142" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A142" s="12" t="s">
         <v>88</v>
       </c>
@@ -19527,7 +19529,7 @@
         <v>3.82</v>
       </c>
     </row>
-    <row r="143" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A143" s="12" t="s">
         <v>89</v>
       </c>
@@ -19670,7 +19672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A144" s="12" t="s">
         <v>90</v>
       </c>
@@ -19813,7 +19815,7 @@
         <v>2.12</v>
       </c>
     </row>
-    <row r="145" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A145" s="12" t="s">
         <v>91</v>
       </c>
@@ -19956,7 +19958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A146" s="12" t="s">
         <v>92</v>
       </c>
@@ -20099,7 +20101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A147" s="12" t="s">
         <v>93</v>
       </c>
@@ -20242,7 +20244,7 @@
         <v>13.06</v>
       </c>
     </row>
-    <row r="148" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A148" s="12" t="s">
         <v>94</v>
       </c>
@@ -20385,12 +20387,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="150" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="151" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A151" s="12" t="s">
         <v>40</v>
       </c>
@@ -20533,7 +20535,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="152" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A152" s="12" t="s">
         <v>87</v>
       </c>
@@ -20676,7 +20678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A153" s="12" t="s">
         <v>88</v>
       </c>
@@ -20819,7 +20821,7 @@
         <v>27.62</v>
       </c>
     </row>
-    <row r="154" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A154" s="12" t="s">
         <v>89</v>
       </c>
@@ -20962,7 +20964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A155" s="12" t="s">
         <v>90</v>
       </c>
@@ -21105,7 +21107,7 @@
         <v>10.75</v>
       </c>
     </row>
-    <row r="156" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A156" s="12" t="s">
         <v>91</v>
       </c>
@@ -21248,7 +21250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A157" s="12" t="s">
         <v>92</v>
       </c>
@@ -21391,7 +21393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A158" s="12" t="s">
         <v>93</v>
       </c>
@@ -21534,7 +21536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A159" s="12" t="s">
         <v>94</v>
       </c>
@@ -21706,18 +21708,18 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:2" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
         <v>39</v>
       </c>
       <c r="B4" s="12"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
         <v>40</v>
       </c>
@@ -21725,7 +21727,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>87</v>
       </c>
@@ -21733,7 +21735,7 @@
         <v>384922.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>88</v>
       </c>
@@ -21741,7 +21743,7 @@
         <v>34673.040000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>89</v>
       </c>
@@ -21749,7 +21751,7 @@
         <v>8197.7900000000009</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>90</v>
       </c>
@@ -21757,7 +21759,7 @@
         <v>3177.39</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>91</v>
       </c>
@@ -21765,7 +21767,7 @@
         <v>89069.8</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>92</v>
       </c>
@@ -21773,7 +21775,7 @@
         <v>33709.83</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>93</v>
       </c>
@@ -21781,7 +21783,7 @@
         <v>70167.34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>94</v>
       </c>
@@ -21802,31 +21804,31 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="I3" s="17"/>
       <c r="J3" s="17"/>
     </row>
-    <row r="4" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>108</v>
       </c>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
     </row>
-    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>109</v>
       </c>
@@ -21847,7 +21849,7 @@
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>2010</v>
       </c>
@@ -21868,7 +21870,7 @@
       <c r="I6" s="21"/>
       <c r="J6" s="17"/>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>2011</v>
       </c>
@@ -21889,7 +21891,7 @@
       <c r="I7" s="21"/>
       <c r="J7" s="17"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -21911,7 +21913,7 @@
       <c r="I8" s="21"/>
       <c r="J8" s="17"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2013</v>
       </c>
@@ -21933,7 +21935,7 @@
       <c r="I9" s="21"/>
       <c r="J9" s="17"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2014</v>
       </c>
@@ -21955,7 +21957,7 @@
       <c r="I10" s="21"/>
       <c r="J10" s="17"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2015</v>
       </c>
@@ -21977,7 +21979,7 @@
       <c r="I11" s="21"/>
       <c r="J11" s="17"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -21999,7 +22001,7 @@
       <c r="I12" s="21"/>
       <c r="J12" s="17"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -22020,7 +22022,7 @@
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
@@ -22041,7 +22043,7 @@
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2019</v>
       </c>
@@ -22062,7 +22064,7 @@
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2020</v>
       </c>
@@ -22083,7 +22085,7 @@
       <c r="H16" s="21"/>
       <c r="I16" s="21"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="25"/>
@@ -22092,7 +22094,7 @@
       <c r="G17" s="22"/>
       <c r="H17" s="26"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D18" s="17"/>
       <c r="E18" s="27" t="s">
         <v>114</v>
@@ -22100,7 +22102,7 @@
       <c r="G18" s="22"/>
       <c r="H18" s="26"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
       <c r="D19" s="17"/>
@@ -22108,7 +22110,7 @@
       <c r="G19" s="22"/>
       <c r="H19" s="26"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" s="17"/>
       <c r="C20" s="17"/>
       <c r="D20" s="17"/>
@@ -22116,7 +22118,7 @@
       <c r="G20" s="22"/>
       <c r="H20" s="26"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>115</v>
       </c>
@@ -22127,7 +22129,7 @@
       <c r="G21" s="22"/>
       <c r="H21" s="26"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>116</v>
       </c>
@@ -22136,7 +22138,7 @@
       <c r="D22" s="28"/>
       <c r="H22" s="26"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="30" t="s">
         <v>117</v>
       </c>
@@ -22148,7 +22150,7 @@
       <c r="G23" s="34"/>
       <c r="H23" s="35"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B24" s="32"/>
       <c r="C24" s="32"/>
       <c r="D24" s="32"/>
@@ -22157,7 +22159,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="35"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="30"/>
       <c r="B25" s="36"/>
       <c r="C25" s="36"/>
@@ -22167,7 +22169,7 @@
       <c r="G25" s="33"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="30" t="s">
         <v>118</v>
       </c>
@@ -22179,7 +22181,7 @@
       <c r="G26" s="33"/>
       <c r="H26" s="33"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="30" t="s">
         <v>119</v>
       </c>
@@ -22191,7 +22193,7 @@
       <c r="G27" s="33"/>
       <c r="H27" s="33"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="30" t="s">
         <v>120</v>
       </c>
@@ -22203,7 +22205,7 @@
       <c r="G28" s="33"/>
       <c r="H28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="33"/>
       <c r="B29" s="38"/>
       <c r="C29" s="38"/>
@@ -22213,7 +22215,7 @@
       <c r="G29" s="33"/>
       <c r="H29" s="33"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="33"/>
       <c r="B30" s="38"/>
       <c r="C30" s="38"/>
@@ -22223,7 +22225,7 @@
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="33"/>
       <c r="B31" s="38"/>
       <c r="C31" s="38"/>
@@ -22233,7 +22235,7 @@
       <c r="G31" s="33"/>
       <c r="H31" s="33"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="33"/>
       <c r="B32" s="27"/>
       <c r="C32" s="27"/>
@@ -22243,7 +22245,7 @@
       <c r="G32" s="33"/>
       <c r="H32" s="33"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="33"/>
       <c r="B33" s="40"/>
       <c r="C33" s="38"/>
@@ -22253,7 +22255,7 @@
       <c r="G33" s="33"/>
       <c r="H33" s="33"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="38"/>
@@ -22263,7 +22265,7 @@
       <c r="G34" s="33"/>
       <c r="H34" s="33"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="33"/>
       <c r="B35" s="27"/>
       <c r="C35" s="38"/>
@@ -22275,7 +22277,7 @@
       <c r="I35" s="41"/>
       <c r="K35" s="41"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="33"/>
       <c r="B36" s="27"/>
       <c r="C36" s="38"/>
@@ -22288,7 +22290,7 @@
       <c r="J36" s="41"/>
       <c r="K36" s="41"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="33"/>
       <c r="B37" s="38"/>
       <c r="C37" s="38"/>
@@ -22301,7 +22303,7 @@
       <c r="J37" s="41"/>
       <c r="K37" s="41"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="33"/>
       <c r="B38" s="43"/>
       <c r="C38" s="33"/>
@@ -22311,7 +22313,7 @@
       <c r="G38" s="33"/>
       <c r="H38" s="33"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="33"/>
       <c r="B39" s="33"/>
       <c r="C39" s="33"/>
@@ -22321,7 +22323,7 @@
       <c r="G39" s="33"/>
       <c r="H39" s="33"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="33"/>
       <c r="B40" s="33"/>
       <c r="C40" s="33"/>
@@ -22331,7 +22333,7 @@
       <c r="G40" s="44"/>
       <c r="H40" s="33"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="33"/>
       <c r="B41" s="33"/>
       <c r="C41" s="33"/>
@@ -22341,7 +22343,7 @@
       <c r="G41" s="33"/>
       <c r="H41" s="33"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G42" s="1"/>
     </row>
   </sheetData>
@@ -22359,7 +22361,7 @@
       <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22374,14 +22376,14 @@
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32.7265625" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>121</v>
       </c>
@@ -22392,7 +22394,7 @@
         <v>13200000000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="46" t="s">
         <v>123</v>
       </c>
@@ -22408,7 +22410,7 @@
         <v>2515324387.902698</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="46" t="s">
         <v>124</v>
       </c>
@@ -22424,7 +22426,7 @@
         <v>53336121.775110558</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="12.65" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="46" t="s">
         <v>125</v>
       </c>
@@ -22440,7 +22442,7 @@
         <v>5318786353.6335354</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="46" t="s">
         <v>126</v>
       </c>
@@ -22456,7 +22458,7 @@
         <v>2550785523.0933976</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="46" t="s">
         <v>127</v>
       </c>
@@ -22472,7 +22474,7 @@
         <v>2711119739.7971115</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" ht="13.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="46" t="s">
         <v>128</v>
       </c>
@@ -22488,7 +22490,7 @@
         <v>52975103.264731474</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="14.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A10" s="45" t="s">
         <v>129</v>
       </c>
@@ -22504,7 +22506,7 @@
         <v>13202327229.466585</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="45" t="s">
         <v>130</v>
       </c>
@@ -22512,7 +22514,7 @@
         <v>3884.0139159999999</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="45" t="s">
         <v>131</v>
       </c>
@@ -22520,7 +22522,7 @@
         <v>2711119739.7971115</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="46" t="s">
         <v>132</v>
       </c>
@@ -22536,7 +22538,7 @@
         <v>1011929854.1579767</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="46" t="s">
         <v>133</v>
       </c>
@@ -22552,7 +22554,7 @@
         <v>56093445.975940511</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="46" t="s">
         <v>134</v>
       </c>
@@ -22568,7 +22570,7 @@
         <v>65423362.883380406</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="46" t="s">
         <v>135</v>
       </c>
@@ -22584,7 +22586,7 @@
         <v>44215689.580897912</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="46" t="s">
         <v>136</v>
       </c>
@@ -22596,7 +22598,7 @@
         <v>1.6039201965424958E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="46" t="s">
         <v>137</v>
       </c>
@@ -22608,7 +22610,7 @@
         <v>2.6981195669964432E-4</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="46" t="s">
         <v>138</v>
       </c>
@@ -22624,7 +22626,7 @@
         <v>11766191.46572748</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="46" t="s">
         <v>139</v>
       </c>
@@ -22640,7 +22642,7 @@
         <v>293917486.84693819</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="46" t="s">
         <v>140</v>
       </c>
@@ -22656,7 +22658,7 @@
         <v>1227373085.1256313</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="46" t="s">
         <v>141</v>
       </c>
@@ -22672,7 +22674,7 @@
         <v>400763.7372064896</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="45" t="s">
         <v>142</v>
       </c>
@@ -22698,34 +22700,34 @@
       <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="12"/>
-    <col min="2" max="14" width="8.7265625" style="12" hidden="1" customWidth="1"/>
-    <col min="15" max="16384" width="8.7265625" style="12"/>
+    <col min="1" max="1" width="8.7109375" style="12"/>
+    <col min="2" max="14" width="8.7109375" style="12" hidden="1" customWidth="1"/>
+    <col min="15" max="16384" width="8.7109375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:47" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="11" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="6" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>40</v>
       </c>
@@ -22868,7 +22870,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>169</v>
       </c>
@@ -23011,7 +23013,7 @@
         <v>57468.71</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>170</v>
       </c>
@@ -23154,7 +23156,7 @@
         <v>58942.27</v>
       </c>
     </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>171</v>
       </c>
@@ -23297,7 +23299,7 @@
         <v>1473.56</v>
       </c>
     </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A11" s="53" t="s">
         <v>172</v>
       </c>
@@ -23440,7 +23442,7 @@
         <v>56157.55</v>
       </c>
     </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>173</v>
       </c>
@@ -23583,7 +23585,7 @@
         <v>41269.230000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
         <v>174</v>
       </c>
@@ -23726,12 +23728,12 @@
         <v>14888.32</v>
       </c>
     </row>
-    <row r="15" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>40</v>
       </c>
@@ -23874,7 +23876,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>169</v>
       </c>
@@ -24017,7 +24019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>170</v>
       </c>
@@ -24160,7 +24162,7 @@
         <v>39128.879999999997</v>
       </c>
     </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>171</v>
       </c>
@@ -24303,7 +24305,7 @@
         <v>39128.879999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>172</v>
       </c>
@@ -24446,7 +24448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>173</v>
       </c>
@@ -24589,7 +24591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>174</v>
       </c>
@@ -24732,12 +24734,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>40</v>
       </c>
@@ -24880,7 +24882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>169</v>
       </c>
@@ -25023,7 +25025,7 @@
         <v>1010.25</v>
       </c>
     </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>170</v>
       </c>
@@ -25166,7 +25168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>171</v>
       </c>
@@ -25309,7 +25311,7 @@
         <v>-1010.25</v>
       </c>
     </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>172</v>
       </c>
@@ -25452,7 +25454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>173</v>
       </c>
@@ -25595,7 +25597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>174</v>
       </c>
@@ -25738,12 +25740,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>40</v>
       </c>
@@ -25886,7 +25888,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>169</v>
       </c>
@@ -26029,7 +26031,7 @@
         <v>3513.66</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
         <v>170</v>
       </c>
@@ -26172,7 +26174,7 @@
         <v>77.14</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A37" s="12" t="s">
         <v>171</v>
       </c>
@@ -26315,7 +26317,7 @@
         <v>-3436.52</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>172</v>
       </c>
@@ -26458,7 +26460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>173</v>
       </c>
@@ -26601,7 +26603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>174</v>
       </c>
@@ -26744,12 +26746,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>40</v>
       </c>
@@ -26892,7 +26894,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>169</v>
       </c>
@@ -27035,7 +27037,7 @@
         <v>1205.3</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>170</v>
       </c>
@@ -27178,7 +27180,7 @@
         <v>3123.29</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>171</v>
       </c>
@@ -27321,7 +27323,7 @@
         <v>1917.99</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>172</v>
       </c>
@@ -27464,7 +27466,7 @@
         <v>858.48</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>173</v>
       </c>
@@ -27607,7 +27609,7 @@
         <v>-2528.62</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>174</v>
       </c>
@@ -27750,12 +27752,12 @@
         <v>3387.1</v>
       </c>
     </row>
-    <row r="51" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>40</v>
       </c>
@@ -27898,7 +27900,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>169</v>
       </c>
@@ -28041,7 +28043,7 @@
         <v>43745.43</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>170</v>
       </c>
@@ -28184,7 +28186,7 @@
         <v>5854.11</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55" s="12" t="s">
         <v>171</v>
       </c>
@@ -28327,7 +28329,7 @@
         <v>-37891.32</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56" s="12" t="s">
         <v>172</v>
       </c>
@@ -28470,7 +28472,7 @@
         <v>37893.43</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57" s="12" t="s">
         <v>173</v>
       </c>
@@ -28613,7 +28615,7 @@
         <v>36738.839999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58" s="12" t="s">
         <v>174</v>
       </c>
@@ -28756,12 +28758,12 @@
         <v>1154.5899999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61" s="12" t="s">
         <v>40</v>
       </c>
@@ -28904,7 +28906,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62" s="12" t="s">
         <v>169</v>
       </c>
@@ -29047,7 +29049,7 @@
         <v>4577.67</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63" s="12" t="s">
         <v>170</v>
       </c>
@@ -29190,7 +29192,7 @@
         <v>6024.84</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64" s="12" t="s">
         <v>171</v>
       </c>
@@ -29333,7 +29335,7 @@
         <v>1447.17</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65" s="12" t="s">
         <v>172</v>
       </c>
@@ -29476,7 +29478,7 @@
         <v>582.45000000000005</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A66" s="12" t="s">
         <v>173</v>
       </c>
@@ -29619,7 +29621,7 @@
         <v>-478.46</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" s="12" t="s">
         <v>174</v>
       </c>
@@ -29762,12 +29764,12 @@
         <v>1060.9100000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70" s="12" t="s">
         <v>40</v>
       </c>
@@ -29910,7 +29912,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71" s="12" t="s">
         <v>169</v>
       </c>
@@ -30053,7 +30055,7 @@
         <v>427.05</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72" s="12" t="s">
         <v>170</v>
       </c>
@@ -30196,7 +30198,7 @@
         <v>2190</v>
       </c>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A73" s="12" t="s">
         <v>171</v>
       </c>
@@ -30339,7 +30341,7 @@
         <v>1762.95</v>
       </c>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" s="12" t="s">
         <v>173</v>
       </c>
@@ -30482,7 +30484,7 @@
         <v>10269.64</v>
       </c>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75" s="12" t="s">
         <v>172</v>
       </c>
@@ -30625,7 +30627,7 @@
         <v>11654.8</v>
       </c>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76" s="12" t="s">
         <v>174</v>
       </c>
@@ -30768,12 +30770,12 @@
         <v>1385.16</v>
       </c>
     </row>
-    <row r="78" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79" s="12" t="s">
         <v>40</v>
       </c>
@@ -30916,7 +30918,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A80" s="12" t="s">
         <v>169</v>
       </c>
@@ -31059,7 +31061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A81" s="12" t="s">
         <v>170</v>
       </c>
@@ -31202,7 +31204,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="82" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A82" s="12" t="s">
         <v>171</v>
       </c>
@@ -31345,7 +31347,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="83" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A83" s="12" t="s">
         <v>172</v>
       </c>
@@ -31488,7 +31490,7 @@
         <v>350.4</v>
       </c>
     </row>
-    <row r="84" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A84" s="12" t="s">
         <v>173</v>
       </c>
@@ -31631,7 +31633,7 @@
         <v>350.4</v>
       </c>
     </row>
-    <row r="85" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A85" s="12" t="s">
         <v>174</v>
       </c>
@@ -31774,12 +31776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="88" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A88" s="12" t="s">
         <v>40</v>
       </c>
@@ -31922,7 +31924,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="89" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A89" s="12" t="s">
         <v>169</v>
       </c>
@@ -32065,7 +32067,7 @@
         <v>854.1</v>
       </c>
     </row>
-    <row r="90" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A90" s="12" t="s">
         <v>170</v>
       </c>
@@ -32208,7 +32210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A91" s="12" t="s">
         <v>171</v>
       </c>
@@ -32351,7 +32353,7 @@
         <v>-854.1</v>
       </c>
     </row>
-    <row r="92" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A92" s="12" t="s">
         <v>172</v>
       </c>
@@ -32494,7 +32496,7 @@
         <v>4380</v>
       </c>
     </row>
-    <row r="93" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A93" s="12" t="s">
         <v>173</v>
       </c>
@@ -32637,7 +32639,7 @@
         <v>-3520.57</v>
       </c>
     </row>
-    <row r="94" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A94" s="12" t="s">
         <v>174</v>
       </c>
@@ -32780,12 +32782,12 @@
         <v>7900.57</v>
       </c>
     </row>
-    <row r="96" spans="1:47" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:47" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="97" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A97" s="12" t="s">
         <v>40</v>
       </c>
@@ -32928,7 +32930,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="98" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A98" s="12" t="s">
         <v>169</v>
       </c>
@@ -33071,7 +33073,7 @@
         <v>2135.25</v>
       </c>
     </row>
-    <row r="99" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A99" s="12" t="s">
         <v>170</v>
       </c>
@@ -33214,7 +33216,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="100" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A100" s="12" t="s">
         <v>171</v>
       </c>
@@ -33357,7 +33359,7 @@
         <v>-1697.25</v>
       </c>
     </row>
-    <row r="101" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A101" s="12" t="s">
         <v>172</v>
       </c>
@@ -33500,7 +33502,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="102" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A102" s="12" t="s">
         <v>173</v>
       </c>
@@ -33643,7 +33645,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="103" spans="1:47" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A103" s="12" t="s">
         <v>174</v>
       </c>
@@ -33809,127 +33811,130 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AF18"/>
+  <dimension ref="A1:AG18"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B2" sqref="B2:B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="32" width="11.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="33" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="6">
+        <v>2019</v>
+      </c>
+      <c r="C1">
         <v>2020</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>2021</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>2022</v>
       </c>
-      <c r="E1">
+      <c r="F1">
         <v>2023</v>
       </c>
-      <c r="F1">
+      <c r="G1">
         <v>2024</v>
       </c>
-      <c r="G1">
+      <c r="H1">
         <v>2025</v>
       </c>
-      <c r="H1">
+      <c r="I1">
         <v>2026</v>
       </c>
-      <c r="I1">
+      <c r="J1">
         <v>2027</v>
       </c>
-      <c r="J1">
+      <c r="K1">
         <v>2028</v>
       </c>
-      <c r="K1">
+      <c r="L1">
         <v>2029</v>
       </c>
-      <c r="L1">
+      <c r="M1">
         <v>2030</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>2031</v>
       </c>
-      <c r="N1">
+      <c r="O1">
         <v>2032</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>2033</v>
       </c>
-      <c r="P1">
+      <c r="Q1">
         <v>2034</v>
       </c>
-      <c r="Q1">
+      <c r="R1">
         <v>2035</v>
       </c>
-      <c r="R1">
+      <c r="S1">
         <v>2036</v>
       </c>
-      <c r="S1">
+      <c r="T1">
         <v>2037</v>
       </c>
-      <c r="T1">
+      <c r="U1">
         <v>2038</v>
       </c>
-      <c r="U1">
+      <c r="V1">
         <v>2039</v>
       </c>
-      <c r="V1">
+      <c r="W1">
         <v>2040</v>
       </c>
-      <c r="W1">
+      <c r="X1">
         <v>2041</v>
       </c>
-      <c r="X1">
+      <c r="Y1">
         <v>2042</v>
       </c>
-      <c r="Y1">
+      <c r="Z1">
         <v>2043</v>
       </c>
-      <c r="Z1">
+      <c r="AA1">
         <v>2044</v>
       </c>
-      <c r="AA1">
+      <c r="AB1">
         <v>2045</v>
       </c>
-      <c r="AB1">
+      <c r="AC1">
         <v>2046</v>
       </c>
-      <c r="AC1">
+      <c r="AD1">
         <v>2047</v>
       </c>
-      <c r="AD1">
+      <c r="AE1">
         <v>2048</v>
       </c>
-      <c r="AE1">
+      <c r="AF1">
         <v>2049</v>
       </c>
-      <c r="AF1">
+      <c r="AG1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="55">
+        <f>C2</f>
+        <v>2515324.387902698</v>
+      </c>
+      <c r="C2" s="5">
         <f>'Percentage of US Generation'!E4/1000</f>
-        <v>2515324.387902698</v>
-      </c>
-      <c r="C2" s="5">
-        <f>B2</f>
         <v>2515324.387902698</v>
       </c>
       <c r="D2" s="5">
@@ -33937,11 +33942,11 @@
         <v>2515324.387902698</v>
       </c>
       <c r="E2" s="5">
-        <f t="shared" ref="E2:AF2" si="0">D2</f>
+        <f>D2</f>
         <v>2515324.387902698</v>
       </c>
       <c r="F2" s="5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F2:AG2" si="0">E2</f>
         <v>2515324.387902698</v>
       </c>
       <c r="G2" s="5">
@@ -34048,1944 +34053,2005 @@
         <f t="shared" si="0"/>
         <v>2515324.387902698</v>
       </c>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.35">
+      <c r="AG2" s="5">
+        <f t="shared" si="0"/>
+        <v>2515324.387902698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="55">
+        <f t="shared" ref="B3:B17" si="1">C3</f>
+        <v>5318786.3536335351</v>
+      </c>
+      <c r="C3" s="5">
         <f>'Percentage of US Generation'!E6/1000</f>
         <v>5318786.3536335351</v>
       </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C17" si="1">B3</f>
+      <c r="D3" s="5">
+        <f t="shared" ref="D3:D17" si="2">C3</f>
         <v>5318786.3536335351</v>
       </c>
-      <c r="D3" s="5">
-        <f t="shared" ref="D3:AF3" si="2">C3</f>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:AG3" si="3">D3</f>
         <v>5318786.3536335351</v>
       </c>
-      <c r="E3" s="5">
-        <f t="shared" si="2"/>
+      <c r="F3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="F3" s="5">
-        <f t="shared" si="2"/>
+      <c r="G3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="G3" s="5">
-        <f t="shared" si="2"/>
+      <c r="H3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="H3" s="5">
-        <f t="shared" si="2"/>
+      <c r="I3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="I3" s="5">
-        <f t="shared" si="2"/>
+      <c r="J3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="J3" s="5">
-        <f t="shared" si="2"/>
+      <c r="K3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" si="2"/>
+      <c r="L3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="L3" s="5">
-        <f t="shared" si="2"/>
+      <c r="M3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="M3" s="5">
-        <f t="shared" si="2"/>
+      <c r="N3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="N3" s="5">
-        <f t="shared" si="2"/>
+      <c r="O3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="O3" s="5">
-        <f t="shared" si="2"/>
+      <c r="P3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="P3" s="5">
-        <f t="shared" si="2"/>
+      <c r="Q3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="Q3" s="5">
-        <f t="shared" si="2"/>
+      <c r="R3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="R3" s="5">
-        <f t="shared" si="2"/>
+      <c r="S3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="S3" s="5">
-        <f t="shared" si="2"/>
+      <c r="T3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="T3" s="5">
-        <f t="shared" si="2"/>
+      <c r="U3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="U3" s="5">
-        <f t="shared" si="2"/>
+      <c r="V3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="V3" s="5">
-        <f t="shared" si="2"/>
+      <c r="W3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="W3" s="5">
-        <f t="shared" si="2"/>
+      <c r="X3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="X3" s="5">
-        <f t="shared" si="2"/>
+      <c r="Y3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="Y3" s="5">
-        <f t="shared" si="2"/>
+      <c r="Z3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="Z3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AA3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="AA3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AB3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="AB3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AC3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="AC3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AD3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="AD3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AE3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="AE3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AF3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
-      <c r="AF3" s="5">
-        <f t="shared" si="2"/>
+      <c r="AG3" s="5">
+        <f t="shared" si="3"/>
         <v>5318786.3536335351</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="55">
+        <f t="shared" si="1"/>
+        <v>2550785.5230933977</v>
+      </c>
+      <c r="C4" s="5">
         <f>'Percentage of US Generation'!E7/1000</f>
         <v>2550785.5230933977</v>
       </c>
-      <c r="C4" s="5">
-        <f t="shared" si="1"/>
+      <c r="D4" s="5">
+        <f t="shared" si="2"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="D4" s="5">
-        <f t="shared" ref="D4:AF4" si="3">C4</f>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:AG4" si="4">D4</f>
         <v>2550785.5230933977</v>
       </c>
-      <c r="E4" s="5">
-        <f t="shared" si="3"/>
+      <c r="F4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="F4" s="5">
-        <f t="shared" si="3"/>
+      <c r="G4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="G4" s="5">
-        <f t="shared" si="3"/>
+      <c r="H4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="H4" s="5">
-        <f t="shared" si="3"/>
+      <c r="I4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="I4" s="5">
-        <f t="shared" si="3"/>
+      <c r="J4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" si="3"/>
+      <c r="K4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="3"/>
+      <c r="L4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="L4" s="5">
-        <f t="shared" si="3"/>
+      <c r="M4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="M4" s="5">
-        <f t="shared" si="3"/>
+      <c r="N4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="N4" s="5">
-        <f t="shared" si="3"/>
+      <c r="O4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="O4" s="5">
-        <f t="shared" si="3"/>
+      <c r="P4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="P4" s="5">
-        <f t="shared" si="3"/>
+      <c r="Q4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="Q4" s="5">
-        <f t="shared" si="3"/>
+      <c r="R4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="R4" s="5">
-        <f t="shared" si="3"/>
+      <c r="S4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="S4" s="5">
-        <f t="shared" si="3"/>
+      <c r="T4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="T4" s="5">
-        <f t="shared" si="3"/>
+      <c r="U4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="U4" s="5">
-        <f t="shared" si="3"/>
+      <c r="V4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="V4" s="5">
-        <f t="shared" si="3"/>
+      <c r="W4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="W4" s="5">
-        <f t="shared" si="3"/>
+      <c r="X4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="X4" s="5">
-        <f t="shared" si="3"/>
+      <c r="Y4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="Y4" s="5">
-        <f t="shared" si="3"/>
+      <c r="Z4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="Z4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AA4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="AA4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AB4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="AB4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AC4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="AC4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AD4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="AD4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AE4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="AE4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AF4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
-      <c r="AF4" s="5">
-        <f t="shared" si="3"/>
+      <c r="AG4" s="5">
+        <f t="shared" si="4"/>
         <v>2550785.5230933977</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="55">
+        <f t="shared" si="1"/>
+        <v>1011929.8541579767</v>
+      </c>
+      <c r="C5" s="5">
         <f>'Percentage of US Generation'!E20/1000</f>
         <v>1011929.8541579767</v>
       </c>
-      <c r="C5" s="5">
-        <f t="shared" si="1"/>
+      <c r="D5" s="5">
+        <f t="shared" si="2"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="D5" s="5">
-        <f t="shared" ref="D5:AF5" si="4">C5</f>
+      <c r="E5" s="5">
+        <f t="shared" ref="E5:AG5" si="5">D5</f>
         <v>1011929.8541579767</v>
       </c>
-      <c r="E5" s="5">
-        <f t="shared" si="4"/>
+      <c r="F5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="F5" s="5">
-        <f t="shared" si="4"/>
+      <c r="G5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="G5" s="5">
-        <f t="shared" si="4"/>
+      <c r="H5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="H5" s="5">
-        <f t="shared" si="4"/>
+      <c r="I5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="I5" s="5">
-        <f t="shared" si="4"/>
+      <c r="J5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="J5" s="5">
-        <f t="shared" si="4"/>
+      <c r="K5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="4"/>
+      <c r="L5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="L5" s="5">
-        <f t="shared" si="4"/>
+      <c r="M5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="M5" s="5">
-        <f t="shared" si="4"/>
+      <c r="N5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="N5" s="5">
-        <f t="shared" si="4"/>
+      <c r="O5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="O5" s="5">
-        <f t="shared" si="4"/>
+      <c r="P5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="P5" s="5">
-        <f t="shared" si="4"/>
+      <c r="Q5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="Q5" s="5">
-        <f t="shared" si="4"/>
+      <c r="R5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="R5" s="5">
-        <f t="shared" si="4"/>
+      <c r="S5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="S5" s="5">
-        <f t="shared" si="4"/>
+      <c r="T5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="T5" s="5">
-        <f t="shared" si="4"/>
+      <c r="U5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="U5" s="5">
-        <f t="shared" si="4"/>
+      <c r="V5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="V5" s="5">
-        <f t="shared" si="4"/>
+      <c r="W5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="W5" s="5">
-        <f t="shared" si="4"/>
+      <c r="X5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="X5" s="5">
-        <f t="shared" si="4"/>
+      <c r="Y5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="Y5" s="5">
-        <f t="shared" si="4"/>
+      <c r="Z5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="Z5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AA5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="AA5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AB5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="AB5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AC5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="AC5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AD5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="AD5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AE5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="AE5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AF5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
-      <c r="AF5" s="5">
-        <f t="shared" si="4"/>
+      <c r="AG5" s="5">
+        <f t="shared" si="5"/>
         <v>1011929.8541579767</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="55">
+        <f t="shared" si="1"/>
+        <v>1227373.0851256314</v>
+      </c>
+      <c r="C6" s="5">
         <f>'Percentage of US Generation'!E28/1000</f>
         <v>1227373.0851256314</v>
       </c>
-      <c r="C6" s="5">
-        <f t="shared" si="1"/>
+      <c r="D6" s="5">
+        <f t="shared" si="2"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="D6" s="5">
-        <f t="shared" ref="D6:AF6" si="5">C6</f>
+      <c r="E6" s="5">
+        <f t="shared" ref="E6:AG6" si="6">D6</f>
         <v>1227373.0851256314</v>
       </c>
-      <c r="E6" s="5">
-        <f t="shared" si="5"/>
+      <c r="F6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="F6" s="5">
-        <f t="shared" si="5"/>
+      <c r="G6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="G6" s="5">
-        <f t="shared" si="5"/>
+      <c r="H6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" si="5"/>
+      <c r="I6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="I6" s="5">
-        <f t="shared" si="5"/>
+      <c r="J6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="J6" s="5">
-        <f t="shared" si="5"/>
+      <c r="K6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="5"/>
+      <c r="L6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="L6" s="5">
-        <f t="shared" si="5"/>
+      <c r="M6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="M6" s="5">
-        <f t="shared" si="5"/>
+      <c r="N6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="N6" s="5">
-        <f t="shared" si="5"/>
+      <c r="O6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="O6" s="5">
-        <f t="shared" si="5"/>
+      <c r="P6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="P6" s="5">
-        <f t="shared" si="5"/>
+      <c r="Q6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="Q6" s="5">
-        <f t="shared" si="5"/>
+      <c r="R6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="R6" s="5">
-        <f t="shared" si="5"/>
+      <c r="S6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="S6" s="5">
-        <f t="shared" si="5"/>
+      <c r="T6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="T6" s="5">
-        <f t="shared" si="5"/>
+      <c r="U6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="U6" s="5">
-        <f t="shared" si="5"/>
+      <c r="V6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="V6" s="5">
-        <f t="shared" si="5"/>
+      <c r="W6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="W6" s="5">
-        <f t="shared" si="5"/>
+      <c r="X6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="X6" s="5">
-        <f t="shared" si="5"/>
+      <c r="Y6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="Y6" s="5">
-        <f t="shared" si="5"/>
+      <c r="Z6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="Z6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AA6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="AA6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AB6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="AB6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AC6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="AC6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AD6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="AD6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AE6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="AE6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AF6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
-      <c r="AF6" s="5">
-        <f t="shared" si="5"/>
+      <c r="AG6" s="5">
+        <f t="shared" si="6"/>
         <v>1227373.0851256314</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="55">
+        <f t="shared" si="1"/>
+        <v>293917.48684693821</v>
+      </c>
+      <c r="C7" s="5">
         <f>'Percentage of US Generation'!E27/1000</f>
         <v>293917.48684693821</v>
       </c>
-      <c r="C7" s="5">
-        <f t="shared" si="1"/>
+      <c r="D7" s="5">
+        <f t="shared" si="2"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="D7" s="5">
-        <f t="shared" ref="D7:AF7" si="6">C7</f>
+      <c r="E7" s="5">
+        <f t="shared" ref="E7:AG7" si="7">D7</f>
         <v>293917.48684693821</v>
       </c>
-      <c r="E7" s="5">
-        <f t="shared" si="6"/>
+      <c r="F7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="F7" s="5">
-        <f t="shared" si="6"/>
+      <c r="G7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="G7" s="5">
-        <f t="shared" si="6"/>
+      <c r="H7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="H7" s="5">
-        <f t="shared" si="6"/>
+      <c r="I7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="I7" s="5">
-        <f t="shared" si="6"/>
+      <c r="J7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="J7" s="5">
-        <f t="shared" si="6"/>
+      <c r="K7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="6"/>
+      <c r="L7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="L7" s="5">
-        <f t="shared" si="6"/>
+      <c r="M7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="M7" s="5">
-        <f t="shared" si="6"/>
+      <c r="N7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="N7" s="5">
-        <f t="shared" si="6"/>
+      <c r="O7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="O7" s="5">
-        <f t="shared" si="6"/>
+      <c r="P7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="P7" s="5">
-        <f t="shared" si="6"/>
+      <c r="Q7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="Q7" s="5">
-        <f t="shared" si="6"/>
+      <c r="R7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="R7" s="5">
-        <f t="shared" si="6"/>
+      <c r="S7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="S7" s="5">
-        <f t="shared" si="6"/>
+      <c r="T7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="T7" s="5">
-        <f t="shared" si="6"/>
+      <c r="U7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="U7" s="5">
-        <f t="shared" si="6"/>
+      <c r="V7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="V7" s="5">
-        <f t="shared" si="6"/>
+      <c r="W7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="W7" s="5">
-        <f t="shared" si="6"/>
+      <c r="X7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="X7" s="5">
-        <f t="shared" si="6"/>
+      <c r="Y7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="Y7" s="5">
-        <f t="shared" si="6"/>
+      <c r="Z7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="Z7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AA7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="AA7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AB7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="AB7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AC7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="AC7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AD7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="AD7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AE7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="AE7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AF7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
-      <c r="AF7" s="5">
-        <f t="shared" si="6"/>
+      <c r="AG7" s="5">
+        <f t="shared" si="7"/>
         <v>293917.48684693821</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B8" s="5">
+      <c r="B8" s="55">
+        <f t="shared" si="1"/>
+        <v>11766.191465727479</v>
+      </c>
+      <c r="C8" s="5">
         <f>'Percentage of US Generation'!E26/1000</f>
         <v>11766.191465727479</v>
       </c>
-      <c r="C8" s="5">
-        <f t="shared" si="1"/>
+      <c r="D8" s="5">
+        <f t="shared" si="2"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="D8" s="5">
-        <f t="shared" ref="D8:AF8" si="7">C8</f>
+      <c r="E8" s="5">
+        <f t="shared" ref="E8:AG8" si="8">D8</f>
         <v>11766.191465727479</v>
       </c>
-      <c r="E8" s="5">
-        <f t="shared" si="7"/>
+      <c r="F8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="F8" s="5">
-        <f t="shared" si="7"/>
+      <c r="G8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="G8" s="5">
-        <f t="shared" si="7"/>
+      <c r="H8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="H8" s="5">
-        <f t="shared" si="7"/>
+      <c r="I8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="I8" s="5">
-        <f t="shared" si="7"/>
+      <c r="J8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="J8" s="5">
-        <f t="shared" si="7"/>
+      <c r="K8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="7"/>
+      <c r="L8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="L8" s="5">
-        <f t="shared" si="7"/>
+      <c r="M8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="M8" s="5">
-        <f t="shared" si="7"/>
+      <c r="N8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="N8" s="5">
-        <f t="shared" si="7"/>
+      <c r="O8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="O8" s="5">
-        <f t="shared" si="7"/>
+      <c r="P8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="P8" s="5">
-        <f t="shared" si="7"/>
+      <c r="Q8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="Q8" s="5">
-        <f t="shared" si="7"/>
+      <c r="R8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="R8" s="5">
-        <f t="shared" si="7"/>
+      <c r="S8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="S8" s="5">
-        <f t="shared" si="7"/>
+      <c r="T8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="T8" s="5">
-        <f t="shared" si="7"/>
+      <c r="U8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="U8" s="5">
-        <f t="shared" si="7"/>
+      <c r="V8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="V8" s="5">
-        <f t="shared" si="7"/>
+      <c r="W8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="W8" s="5">
-        <f t="shared" si="7"/>
+      <c r="X8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="X8" s="5">
-        <f t="shared" si="7"/>
+      <c r="Y8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="Y8" s="5">
-        <f t="shared" si="7"/>
+      <c r="Z8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="Z8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AA8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="AA8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AB8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="AB8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AC8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="AC8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AD8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="AD8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AE8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="AE8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AF8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
-      <c r="AF8" s="5">
-        <f t="shared" si="7"/>
+      <c r="AG8" s="5">
+        <f t="shared" si="8"/>
         <v>11766.191465727479</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B9" s="5">
+      <c r="B9" s="55">
+        <f t="shared" si="1"/>
+        <v>44215.68958089791</v>
+      </c>
+      <c r="C9" s="5">
         <f>'Percentage of US Generation'!E23/1000</f>
         <v>44215.68958089791</v>
       </c>
-      <c r="C9" s="5">
-        <f t="shared" si="1"/>
+      <c r="D9" s="5">
+        <f t="shared" si="2"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="D9" s="5">
-        <f t="shared" ref="D9:AF9" si="8">C9</f>
+      <c r="E9" s="5">
+        <f t="shared" ref="E9:AG9" si="9">D9</f>
         <v>44215.68958089791</v>
       </c>
-      <c r="E9" s="5">
-        <f t="shared" si="8"/>
+      <c r="F9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="F9" s="5">
-        <f t="shared" si="8"/>
+      <c r="G9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="G9" s="5">
-        <f t="shared" si="8"/>
+      <c r="H9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="H9" s="5">
-        <f t="shared" si="8"/>
+      <c r="I9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="I9" s="5">
-        <f t="shared" si="8"/>
+      <c r="J9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="J9" s="5">
-        <f t="shared" si="8"/>
+      <c r="K9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="8"/>
+      <c r="L9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="L9" s="5">
-        <f t="shared" si="8"/>
+      <c r="M9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="M9" s="5">
-        <f t="shared" si="8"/>
+      <c r="N9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="N9" s="5">
-        <f t="shared" si="8"/>
+      <c r="O9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="O9" s="5">
-        <f t="shared" si="8"/>
+      <c r="P9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="P9" s="5">
-        <f t="shared" si="8"/>
+      <c r="Q9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="Q9" s="5">
-        <f t="shared" si="8"/>
+      <c r="R9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="R9" s="5">
-        <f t="shared" si="8"/>
+      <c r="S9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="S9" s="5">
-        <f t="shared" si="8"/>
+      <c r="T9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="T9" s="5">
-        <f t="shared" si="8"/>
+      <c r="U9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="U9" s="5">
-        <f t="shared" si="8"/>
+      <c r="V9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="V9" s="5">
-        <f t="shared" si="8"/>
+      <c r="W9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="W9" s="5">
-        <f t="shared" si="8"/>
+      <c r="X9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="X9" s="5">
-        <f t="shared" si="8"/>
+      <c r="Y9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="Y9" s="5">
-        <f t="shared" si="8"/>
+      <c r="Z9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="Z9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AA9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="AA9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AB9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="AB9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AC9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="AC9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AD9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="AD9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AE9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="AE9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AF9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
-      <c r="AF9" s="5">
-        <f t="shared" si="8"/>
+      <c r="AG9" s="5">
+        <f t="shared" si="9"/>
         <v>44215.68958089791</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="55">
+        <f t="shared" si="1"/>
+        <v>56093.445975940507</v>
+      </c>
+      <c r="C10" s="5">
         <f>'Percentage of US Generation'!E21/1000</f>
         <v>56093.445975940507</v>
       </c>
-      <c r="C10" s="5">
-        <f t="shared" si="1"/>
+      <c r="D10" s="5">
+        <f t="shared" si="2"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="D10" s="5">
-        <f t="shared" ref="D10:AF10" si="9">C10</f>
+      <c r="E10" s="5">
+        <f t="shared" ref="E10:AG10" si="10">D10</f>
         <v>56093.445975940507</v>
       </c>
-      <c r="E10" s="5">
-        <f t="shared" si="9"/>
+      <c r="F10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="F10" s="5">
-        <f t="shared" si="9"/>
+      <c r="G10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="G10" s="5">
-        <f t="shared" si="9"/>
+      <c r="H10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="H10" s="5">
-        <f t="shared" si="9"/>
+      <c r="I10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="I10" s="5">
-        <f t="shared" si="9"/>
+      <c r="J10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="J10" s="5">
-        <f t="shared" si="9"/>
+      <c r="K10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="9"/>
+      <c r="L10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="L10" s="5">
-        <f t="shared" si="9"/>
+      <c r="M10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="M10" s="5">
-        <f t="shared" si="9"/>
+      <c r="N10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="N10" s="5">
-        <f t="shared" si="9"/>
+      <c r="O10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="O10" s="5">
-        <f t="shared" si="9"/>
+      <c r="P10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="P10" s="5">
-        <f t="shared" si="9"/>
+      <c r="Q10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="Q10" s="5">
-        <f t="shared" si="9"/>
+      <c r="R10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="R10" s="5">
-        <f t="shared" si="9"/>
+      <c r="S10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="S10" s="5">
-        <f t="shared" si="9"/>
+      <c r="T10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="T10" s="5">
-        <f t="shared" si="9"/>
+      <c r="U10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="U10" s="5">
-        <f t="shared" si="9"/>
+      <c r="V10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="V10" s="5">
-        <f t="shared" si="9"/>
+      <c r="W10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="W10" s="5">
-        <f t="shared" si="9"/>
+      <c r="X10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="X10" s="5">
-        <f t="shared" si="9"/>
+      <c r="Y10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="Y10" s="5">
-        <f t="shared" si="9"/>
+      <c r="Z10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="Z10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AA10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="AA10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AB10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="AB10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AC10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="AC10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AD10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="AD10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AE10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="AE10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AF10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
-      <c r="AF10" s="5">
-        <f t="shared" si="9"/>
+      <c r="AG10" s="5">
+        <f t="shared" si="10"/>
         <v>56093.445975940507</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="55">
+        <f t="shared" si="1"/>
+        <v>53336.121775110558</v>
+      </c>
+      <c r="C11" s="5">
         <f>'Percentage of US Generation'!E5/1000</f>
         <v>53336.121775110558</v>
       </c>
-      <c r="C11" s="5">
-        <f t="shared" si="1"/>
+      <c r="D11" s="5">
+        <f t="shared" si="2"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="D11" s="5">
-        <f t="shared" ref="D11:AF11" si="10">C11</f>
+      <c r="E11" s="5">
+        <f t="shared" ref="E11:AG11" si="11">D11</f>
         <v>53336.121775110558</v>
       </c>
-      <c r="E11" s="5">
-        <f t="shared" si="10"/>
+      <c r="F11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="F11" s="5">
-        <f t="shared" si="10"/>
+      <c r="G11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="G11" s="5">
-        <f t="shared" si="10"/>
+      <c r="H11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="H11" s="5">
-        <f t="shared" si="10"/>
+      <c r="I11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="I11" s="5">
-        <f t="shared" si="10"/>
+      <c r="J11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="J11" s="5">
-        <f t="shared" si="10"/>
+      <c r="K11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="10"/>
+      <c r="L11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="L11" s="5">
-        <f t="shared" si="10"/>
+      <c r="M11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="M11" s="5">
-        <f t="shared" si="10"/>
+      <c r="N11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="N11" s="5">
-        <f t="shared" si="10"/>
+      <c r="O11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="O11" s="5">
-        <f t="shared" si="10"/>
+      <c r="P11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="P11" s="5">
-        <f t="shared" si="10"/>
+      <c r="Q11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="Q11" s="5">
-        <f t="shared" si="10"/>
+      <c r="R11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="R11" s="5">
-        <f t="shared" si="10"/>
+      <c r="S11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="S11" s="5">
-        <f t="shared" si="10"/>
+      <c r="T11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="T11" s="5">
-        <f t="shared" si="10"/>
+      <c r="U11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="U11" s="5">
-        <f t="shared" si="10"/>
+      <c r="V11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="V11" s="5">
-        <f t="shared" si="10"/>
+      <c r="W11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="W11" s="5">
-        <f t="shared" si="10"/>
+      <c r="X11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="X11" s="5">
-        <f t="shared" si="10"/>
+      <c r="Y11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="Y11" s="5">
-        <f t="shared" si="10"/>
+      <c r="Z11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="Z11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AA11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="AA11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AB11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="AB11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AC11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="AC11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AD11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="AD11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AE11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="AE11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AF11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
-      <c r="AF11" s="5">
-        <f t="shared" si="10"/>
+      <c r="AG11" s="5">
+        <f t="shared" si="11"/>
         <v>53336.121775110558</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D12" s="5">
-        <f t="shared" ref="D12:AF12" si="11">C12</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="E12:AG12" si="12">D12</f>
         <v>0</v>
       </c>
       <c r="F12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="H12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="J12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="K12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="L12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="M12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="N12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="O12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="R12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="S12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="T12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="U12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="V12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="W12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="X12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Y12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Z12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AA12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AB12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AC12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AD12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AE12" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="AF12" s="5">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D13" s="5">
-        <f t="shared" ref="D13:AF13" si="12">C13</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="E13:AG13" si="13">D13</f>
         <v>0</v>
       </c>
       <c r="F13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="G13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="J13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="K13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="L13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="M13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Q13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="R13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="S13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="T13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="U13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="W13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="X13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Y13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="Z13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AA13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AB13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AC13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AD13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AE13" s="5">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="AF13" s="5">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="55">
+        <f t="shared" si="1"/>
+        <v>400.76373720648962</v>
+      </c>
+      <c r="C14" s="5">
         <f>'Percentage of US Generation'!E29/1000</f>
         <v>400.76373720648962</v>
       </c>
-      <c r="C14" s="5">
-        <f t="shared" si="1"/>
+      <c r="D14" s="5">
+        <f t="shared" si="2"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="D14" s="5">
-        <f t="shared" ref="D14:AF14" si="13">C14</f>
+      <c r="E14" s="5">
+        <f t="shared" ref="E14:AG14" si="14">D14</f>
         <v>400.76373720648962</v>
       </c>
-      <c r="E14" s="5">
-        <f t="shared" si="13"/>
+      <c r="F14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="F14" s="5">
-        <f t="shared" si="13"/>
+      <c r="G14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="G14" s="5">
-        <f t="shared" si="13"/>
+      <c r="H14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="H14" s="5">
-        <f t="shared" si="13"/>
+      <c r="I14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="I14" s="5">
-        <f t="shared" si="13"/>
+      <c r="J14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="J14" s="5">
-        <f t="shared" si="13"/>
+      <c r="K14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="K14" s="5">
-        <f t="shared" si="13"/>
+      <c r="L14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="L14" s="5">
-        <f t="shared" si="13"/>
+      <c r="M14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="M14" s="5">
-        <f t="shared" si="13"/>
+      <c r="N14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="N14" s="5">
-        <f t="shared" si="13"/>
+      <c r="O14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="O14" s="5">
-        <f t="shared" si="13"/>
+      <c r="P14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="P14" s="5">
-        <f t="shared" si="13"/>
+      <c r="Q14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="Q14" s="5">
-        <f t="shared" si="13"/>
+      <c r="R14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="R14" s="5">
-        <f t="shared" si="13"/>
+      <c r="S14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="S14" s="5">
-        <f t="shared" si="13"/>
+      <c r="T14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="T14" s="5">
-        <f t="shared" si="13"/>
+      <c r="U14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="U14" s="5">
-        <f t="shared" si="13"/>
+      <c r="V14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="V14" s="5">
-        <f t="shared" si="13"/>
+      <c r="W14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="W14" s="5">
-        <f t="shared" si="13"/>
+      <c r="X14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="X14" s="5">
-        <f t="shared" si="13"/>
+      <c r="Y14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="Y14" s="5">
-        <f t="shared" si="13"/>
+      <c r="Z14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="Z14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AA14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="AA14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AB14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="AB14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AC14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="AC14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AD14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="AD14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AE14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="AE14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AF14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
-      <c r="AF14" s="5">
-        <f t="shared" si="13"/>
+      <c r="AG14" s="5">
+        <f t="shared" si="14"/>
         <v>400.76373720648962</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="55">
+        <f t="shared" si="1"/>
+        <v>52975.103264731471</v>
+      </c>
+      <c r="C15" s="5">
         <f>'Percentage of US Generation'!E9/1000</f>
         <v>52975.103264731471</v>
       </c>
-      <c r="C15" s="5">
-        <f t="shared" si="1"/>
+      <c r="D15" s="5">
+        <f t="shared" si="2"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="D15" s="5">
-        <f t="shared" ref="D15:AF15" si="14">C15</f>
+      <c r="E15" s="5">
+        <f t="shared" ref="E15:AG15" si="15">D15</f>
         <v>52975.103264731471</v>
       </c>
-      <c r="E15" s="5">
-        <f t="shared" si="14"/>
+      <c r="F15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="F15" s="5">
-        <f t="shared" si="14"/>
+      <c r="G15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="G15" s="5">
-        <f t="shared" si="14"/>
+      <c r="H15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="H15" s="5">
-        <f t="shared" si="14"/>
+      <c r="I15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="I15" s="5">
-        <f t="shared" si="14"/>
+      <c r="J15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="J15" s="5">
-        <f t="shared" si="14"/>
+      <c r="K15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="K15" s="5">
-        <f t="shared" si="14"/>
+      <c r="L15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="L15" s="5">
-        <f t="shared" si="14"/>
+      <c r="M15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="M15" s="5">
-        <f t="shared" si="14"/>
+      <c r="N15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="N15" s="5">
-        <f t="shared" si="14"/>
+      <c r="O15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="O15" s="5">
-        <f t="shared" si="14"/>
+      <c r="P15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="P15" s="5">
-        <f t="shared" si="14"/>
+      <c r="Q15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="Q15" s="5">
-        <f t="shared" si="14"/>
+      <c r="R15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="R15" s="5">
-        <f t="shared" si="14"/>
+      <c r="S15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="S15" s="5">
-        <f t="shared" si="14"/>
+      <c r="T15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="T15" s="5">
-        <f t="shared" si="14"/>
+      <c r="U15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="U15" s="5">
-        <f t="shared" si="14"/>
+      <c r="V15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="V15" s="5">
-        <f t="shared" si="14"/>
+      <c r="W15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="W15" s="5">
-        <f t="shared" si="14"/>
+      <c r="X15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="X15" s="5">
-        <f t="shared" si="14"/>
+      <c r="Y15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="Y15" s="5">
-        <f t="shared" si="14"/>
+      <c r="Z15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="Z15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AA15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="AA15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AB15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="AB15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AC15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="AC15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AD15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="AD15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AE15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="AE15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AF15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
-      <c r="AF15" s="5">
-        <f t="shared" si="14"/>
+      <c r="AG15" s="5">
+        <f t="shared" si="15"/>
         <v>52975.103264731471</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B16" s="55">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="D16" s="5">
-        <f t="shared" ref="D16:AF16" si="15">C16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="E16:AG16" si="16">D16</f>
         <v>0</v>
       </c>
       <c r="F16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="H16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="J16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="K16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="M16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="N16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="O16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Q16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="R16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="T16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="U16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="V16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="W16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="X16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Z16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AA16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AB16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AC16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AD16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AE16" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="AF16" s="5">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="AG16" s="5">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="55">
+        <f t="shared" si="1"/>
+        <v>65423.362883380403</v>
+      </c>
+      <c r="C17" s="5">
         <f>'Percentage of US Generation'!E22/1000</f>
         <v>65423.362883380403</v>
       </c>
-      <c r="C17" s="5">
-        <f t="shared" si="1"/>
+      <c r="D17" s="5">
+        <f t="shared" si="2"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="D17" s="5">
-        <f t="shared" ref="D17:AF17" si="16">C17</f>
+      <c r="E17" s="5">
+        <f t="shared" ref="E17:AG17" si="17">D17</f>
         <v>65423.362883380403</v>
       </c>
-      <c r="E17" s="5">
-        <f t="shared" si="16"/>
+      <c r="F17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="F17" s="5">
-        <f t="shared" si="16"/>
+      <c r="G17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="G17" s="5">
-        <f t="shared" si="16"/>
+      <c r="H17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="H17" s="5">
-        <f t="shared" si="16"/>
+      <c r="I17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="I17" s="5">
-        <f t="shared" si="16"/>
+      <c r="J17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="J17" s="5">
-        <f t="shared" si="16"/>
+      <c r="K17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="K17" s="5">
-        <f t="shared" si="16"/>
+      <c r="L17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="L17" s="5">
-        <f t="shared" si="16"/>
+      <c r="M17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="M17" s="5">
-        <f t="shared" si="16"/>
+      <c r="N17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="N17" s="5">
-        <f t="shared" si="16"/>
+      <c r="O17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="O17" s="5">
-        <f t="shared" si="16"/>
+      <c r="P17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="P17" s="5">
-        <f t="shared" si="16"/>
+      <c r="Q17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="Q17" s="5">
-        <f t="shared" si="16"/>
+      <c r="R17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="R17" s="5">
-        <f t="shared" si="16"/>
+      <c r="S17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="S17" s="5">
-        <f t="shared" si="16"/>
+      <c r="T17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="T17" s="5">
-        <f t="shared" si="16"/>
+      <c r="U17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="U17" s="5">
-        <f t="shared" si="16"/>
+      <c r="V17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="V17" s="5">
-        <f t="shared" si="16"/>
+      <c r="W17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="W17" s="5">
-        <f t="shared" si="16"/>
+      <c r="X17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="X17" s="5">
-        <f t="shared" si="16"/>
+      <c r="Y17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="Y17" s="5">
-        <f t="shared" si="16"/>
+      <c r="Z17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="Z17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AA17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="AA17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AB17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="AB17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AC17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="AC17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AD17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="AD17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AE17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="AE17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AF17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
-      <c r="AF17" s="5">
-        <f t="shared" si="16"/>
+      <c r="AG17" s="5">
+        <f t="shared" si="17"/>
         <v>65423.362883380403</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="B18" s="20">
-        <f>SUM(B2:B17)</f>
-        <v>13202327.369443176</v>
-      </c>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="C18" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36000,18 +36066,18 @@
   </sheetPr>
   <dimension ref="A1:AH3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:34" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>160</v>
       </c>
@@ -36115,145 +36181,145 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>161</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2">
         <f>'Electricity Interchange'!O11*1000</f>
         <v>60010030</v>
       </c>
-      <c r="C2" s="54">
+      <c r="C2">
         <f>'Electricity Interchange'!P11*1000</f>
         <v>48897110</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2">
         <f>'Electricity Interchange'!Q11*1000</f>
         <v>67158160</v>
       </c>
-      <c r="E2" s="54">
+      <c r="E2">
         <f>'Electricity Interchange'!R11*1000</f>
         <v>46662210</v>
       </c>
-      <c r="F2" s="54">
+      <c r="F2">
         <f>'Electricity Interchange'!S11*1000</f>
         <v>57777050</v>
       </c>
-      <c r="G2" s="54">
+      <c r="G2">
         <f>'Electricity Interchange'!T11*1000</f>
         <v>52828000</v>
       </c>
-      <c r="H2" s="54">
+      <c r="H2">
         <f>'Electricity Interchange'!U11*1000</f>
         <v>55752660</v>
       </c>
-      <c r="I2" s="54">
+      <c r="I2">
         <f>'Electricity Interchange'!V11*1000</f>
         <v>52641660</v>
       </c>
-      <c r="J2" s="54">
+      <c r="J2">
         <f>'Electricity Interchange'!W11*1000</f>
         <v>47795640</v>
       </c>
-      <c r="K2" s="54">
+      <c r="K2">
         <f>'Electricity Interchange'!X11*1000</f>
         <v>46356560</v>
       </c>
-      <c r="L2" s="54">
+      <c r="L2">
         <f>'Electricity Interchange'!Y11*1000</f>
         <v>42844700</v>
       </c>
-      <c r="M2" s="54">
+      <c r="M2">
         <f>'Electricity Interchange'!Z11*1000</f>
         <v>39557890</v>
       </c>
-      <c r="N2" s="54">
+      <c r="N2">
         <f>'Electricity Interchange'!AA11*1000</f>
         <v>45002620</v>
       </c>
-      <c r="O2" s="54">
+      <c r="O2">
         <f>'Electricity Interchange'!AB11*1000</f>
         <v>51694600</v>
       </c>
-      <c r="P2" s="54">
+      <c r="P2">
         <f>'Electricity Interchange'!AC11*1000</f>
         <v>51283690</v>
       </c>
-      <c r="Q2" s="54">
+      <c r="Q2">
         <f>'Electricity Interchange'!AD11*1000</f>
         <v>54025160</v>
       </c>
-      <c r="R2" s="54">
+      <c r="R2">
         <f>'Electricity Interchange'!AE11*1000</f>
         <v>56785560</v>
       </c>
-      <c r="S2" s="54">
+      <c r="S2">
         <f>'Electricity Interchange'!AF11*1000</f>
         <v>55761030</v>
       </c>
-      <c r="T2" s="54">
+      <c r="T2">
         <f>'Electricity Interchange'!AG11*1000</f>
         <v>54744530</v>
       </c>
-      <c r="U2" s="54">
+      <c r="U2">
         <f>'Electricity Interchange'!AH11*1000</f>
         <v>55165320</v>
       </c>
-      <c r="V2" s="54">
+      <c r="V2">
         <f>'Electricity Interchange'!AI11*1000</f>
         <v>56791150</v>
       </c>
-      <c r="W2" s="54">
+      <c r="W2">
         <f>'Electricity Interchange'!AJ11*1000</f>
         <v>55623120</v>
       </c>
-      <c r="X2" s="54">
+      <c r="X2">
         <f>'Electricity Interchange'!AK11*1000</f>
         <v>57742430</v>
       </c>
-      <c r="Y2" s="54">
+      <c r="Y2">
         <f>'Electricity Interchange'!AL11*1000</f>
         <v>58157680</v>
       </c>
-      <c r="Z2" s="54">
+      <c r="Z2">
         <f>'Electricity Interchange'!AM11*1000</f>
         <v>58905200</v>
       </c>
-      <c r="AA2" s="54">
+      <c r="AA2">
         <f>'Electricity Interchange'!AN11*1000</f>
         <v>54659440</v>
       </c>
-      <c r="AB2" s="54">
+      <c r="AB2">
         <f>'Electricity Interchange'!AO11*1000</f>
         <v>53754240</v>
       </c>
-      <c r="AC2" s="54">
+      <c r="AC2">
         <f>'Electricity Interchange'!AP11*1000</f>
         <v>51547320</v>
       </c>
-      <c r="AD2" s="54">
+      <c r="AD2">
         <f>'Electricity Interchange'!AQ11*1000</f>
         <v>52851500</v>
       </c>
-      <c r="AE2" s="54">
+      <c r="AE2">
         <f>'Electricity Interchange'!AR11*1000</f>
         <v>51442260</v>
       </c>
-      <c r="AF2" s="54">
+      <c r="AF2">
         <f>'Electricity Interchange'!AS11*1000</f>
         <v>55435050</v>
       </c>
-      <c r="AG2" s="54">
+      <c r="AG2">
         <f>'Electricity Interchange'!AT11*1000</f>
         <v>54302450</v>
       </c>
-      <c r="AH2" s="54">
+      <c r="AH2">
         <f>'Electricity Interchange'!AU11*1000</f>
         <v>56157550</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
-      <c r="D3" s="55"/>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="D3" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36261,6 +36327,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -36520,37 +36615,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5BF4D6-1F8B-4A87-9315-FFE1AC5DC563}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535E50DF-C308-4ADA-A886-8A962CA335D3}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -36562,11 +36635,21 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{535E50DF-C308-4ADA-A886-8A962CA335D3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5BF4D6-1F8B-4A87-9315-FFE1AC5DC563}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/InputData/elec/EIaE/Elec Imports and Exports.xlsx
+++ b/InputData/elec/EIaE/Elec Imports and Exports.xlsx
@@ -36356,8 +36356,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -36383,6 +36383,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -36483,6 +36484,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -36635,21 +36641,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2B5BF4D6-1F8B-4A87-9315-FFE1AC5DC563}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BA6B6DF-0016-49EA-BBCB-6B41BC9A09DB}"/>
 </file>